--- a/data/trans_orig/IP16A06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{655ED20E-06B0-4CCF-BAD4-FCBBFA60C98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42EC797F-8EAB-4799-9F91-0C3FFBDE2BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C3A6ADAE-3F80-4CBF-93EE-F0BF10AD0F32}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{ECFFA738-C866-4F88-9B2A-CDBE961D0BCB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -106,6 +106,39 @@
     <t>1,31%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -163,39 +196,6 @@
     <t>8,03%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
     <t>97,77%</t>
   </si>
   <si>
@@ -271,6 +271,36 @@
     <t>0,86%</t>
   </si>
   <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
     <t>94,19%</t>
   </si>
   <si>
@@ -286,9 +316,6 @@
     <t>90,15%</t>
   </si>
   <si>
-    <t>98,81%</t>
-  </si>
-  <si>
     <t>95,18%</t>
   </si>
   <si>
@@ -310,9 +337,6 @@
     <t>4,03%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
     <t>9,85%</t>
   </si>
   <si>
@@ -325,30 +349,6 @@
     <t>9,88%</t>
   </si>
   <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
     <t>98,61%</t>
   </si>
   <si>
@@ -436,6 +436,24 @@
     <t>3,17%</t>
   </si>
   <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
     <t>97,61%</t>
   </si>
   <si>
@@ -470,24 +488,6 @@
   </si>
   <si>
     <t>5,34%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
   </si>
   <si>
     <t>98,74%</t>
@@ -915,7 +915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41307288-A099-40CD-A379-7C63506BE056}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9BC31-5395-4573-BED4-F9AFC3FAB2E6}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1188,10 +1188,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D7" s="7">
-        <v>53267</v>
+        <v>40964</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1200,37 +1200,37 @@
         <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7">
+        <v>49</v>
+      </c>
+      <c r="I7" s="7">
+        <v>32703</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="7">
-        <v>62</v>
-      </c>
-      <c r="I7" s="7">
-        <v>42638</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>111</v>
+      </c>
+      <c r="N7" s="7">
+        <v>73667</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="7">
-        <v>141</v>
-      </c>
-      <c r="N7" s="7">
-        <v>95905</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1239,49 +1239,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>1788</v>
+        <v>1426</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="7">
+        <v>2</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1426</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2043</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="7">
-        <v>6</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3831</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1290,10 +1290,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7">
-        <v>55055</v>
+        <v>42390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1305,10 +1305,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I9" s="7">
-        <v>44681</v>
+        <v>32703</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1320,10 +1320,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="N9" s="7">
-        <v>99736</v>
+        <v>75093</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1337,55 +1337,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>79</v>
+      </c>
+      <c r="D10" s="7">
+        <v>53267</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="7">
         <v>62</v>
       </c>
-      <c r="D10" s="7">
-        <v>40964</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>42638</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="7">
+        <v>141</v>
+      </c>
+      <c r="N10" s="7">
+        <v>95905</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7">
-        <v>49</v>
-      </c>
-      <c r="I10" s="7">
-        <v>32703</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>111</v>
-      </c>
-      <c r="N10" s="7">
-        <v>73667</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1394,46 +1394,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>1426</v>
+        <v>1788</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2043</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>6</v>
+      </c>
+      <c r="N11" s="7">
+        <v>3831</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1426</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>51</v>
@@ -1445,10 +1445,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D12" s="7">
-        <v>42390</v>
+        <v>55055</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1460,10 +1460,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I12" s="7">
-        <v>32703</v>
+        <v>44681</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1475,10 +1475,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>75093</v>
+        <v>99736</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1661,7 +1661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060BFC11-5C71-450F-A61B-4DAA076E09BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E33D519-7698-4C6C-A37D-100439DCEEFB}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1934,49 +1934,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="D7" s="7">
-        <v>43219</v>
+        <v>66677</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>75</v>
+      </c>
+      <c r="I7" s="7">
+        <v>54498</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="7">
-        <v>79</v>
-      </c>
-      <c r="I7" s="7">
-        <v>54599</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="7">
+        <v>167</v>
+      </c>
+      <c r="N7" s="7">
+        <v>121175</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M7" s="7">
-        <v>142</v>
-      </c>
-      <c r="N7" s="7">
-        <v>97818</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,49 +1985,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>2667</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>656</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>656</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2292</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M8" s="7">
-        <v>7</v>
-      </c>
-      <c r="N8" s="7">
-        <v>4959</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2036,10 +2036,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="D9" s="7">
-        <v>45886</v>
+        <v>66677</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2051,10 +2051,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I9" s="7">
-        <v>56891</v>
+        <v>55154</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2066,10 +2066,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="N9" s="7">
-        <v>102777</v>
+        <v>121831</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2083,55 +2083,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>63</v>
+      </c>
+      <c r="D10" s="7">
+        <v>43219</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="7">
+        <v>79</v>
+      </c>
+      <c r="I10" s="7">
+        <v>54599</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="7">
+        <v>142</v>
+      </c>
+      <c r="N10" s="7">
+        <v>97818</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="7">
-        <v>66677</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>75</v>
-      </c>
-      <c r="I10" s="7">
-        <v>54498</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="7">
-        <v>167</v>
-      </c>
-      <c r="N10" s="7">
-        <v>121175</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,46 +2140,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>2667</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2292</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>656</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>7</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4959</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>656</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>102</v>
@@ -2191,10 +2191,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="D12" s="7">
-        <v>66677</v>
+        <v>45886</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2206,10 +2206,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I12" s="7">
-        <v>55154</v>
+        <v>56891</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2221,10 +2221,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="N12" s="7">
-        <v>121831</v>
+        <v>102777</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2407,7 +2407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEEDF16-6D7C-494C-8379-DDAB830E8215}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6272BC4-E6A7-466D-987A-1FE53A80CFBC}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2680,49 +2680,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="7">
-        <v>49491</v>
+        <v>46696</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>80</v>
+      </c>
+      <c r="I7" s="7">
+        <v>53029</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7">
-        <v>79</v>
-      </c>
-      <c r="I7" s="7">
-        <v>55874</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>147</v>
       </c>
       <c r="N7" s="7">
-        <v>105365</v>
+        <v>99725</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,49 +2731,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>1214</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1141</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="K8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="M8" s="7">
-        <v>4</v>
-      </c>
-      <c r="N8" s="7">
-        <v>2355</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="P8" s="7" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,10 +2782,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D9" s="7">
-        <v>50705</v>
+        <v>46696</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2797,10 +2797,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I9" s="7">
-        <v>57015</v>
+        <v>53029</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2812,10 +2812,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N9" s="7">
-        <v>107720</v>
+        <v>99725</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2829,55 +2829,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D10" s="7">
-        <v>46696</v>
+        <v>49491</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I10" s="7">
-        <v>53029</v>
+        <v>55874</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>147</v>
       </c>
       <c r="N10" s="7">
-        <v>99725</v>
+        <v>105365</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,46 +2886,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>1214</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="G11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1141</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>4</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2355</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>149</v>
@@ -2937,10 +2937,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D12" s="7">
-        <v>46696</v>
+        <v>50705</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2952,10 +2952,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I12" s="7">
-        <v>53029</v>
+        <v>57015</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2967,10 +2967,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="N12" s="7">
-        <v>99725</v>
+        <v>107720</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>

--- a/data/trans_orig/IP16A06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42EC797F-8EAB-4799-9F91-0C3FFBDE2BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58C7BF59-7D6D-4636-B5EF-16A7A81C5EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{ECFFA738-C866-4F88-9B2A-CDBE961D0BCB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6AA784AE-7635-4E4E-8166-B195B4A18785}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="188">
   <si>
     <t>Menores según si ha consumido tranquilizantes, relajantes en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -67,7 +67,25 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
   </si>
   <si>
     <t>No</t>
@@ -76,454 +94,514 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>97,26%</t>
+    <t>95,75%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>97,51%</t>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido tranquilizantes, relajantes en 2012 (Tasa respuesta: 25,73%)</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido tranquilizantes, relajantes en 2015 (Tasa respuesta: 21,64%)</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido tranquilizantes, relajantes en 2012 (Tasa respuesta: 25,73%)</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido tranquilizantes, relajantes en 2015 (Tasa respuesta: 21,64%)</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
+    <t>99,63%</t>
   </si>
 </sst>
 </file>
@@ -534,7 +612,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -630,39 +708,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -714,7 +792,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -825,13 +903,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -840,6 +911,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -904,19 +982,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9BC31-5395-4573-BED4-F9AFC3FAB2E6}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5862E05D-FD64-4100-BB9A-4C32D189291B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1033,10 +1131,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>46474</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1048,34 +1146,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>47921</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>94395</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1084,10 +1182,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>29655</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1099,34 +1197,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>29035</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>58690</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1135,49 +1233,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7">
-        <v>46474</v>
+        <v>29655</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="I6" s="7">
-        <v>47921</v>
+        <v>29035</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="N6" s="7">
-        <v>94395</v>
+        <v>58690</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1188,49 +1286,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>40964</v>
+        <v>700</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>32703</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>73667</v>
+        <v>700</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1239,49 +1337,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D8" s="7">
-        <v>1426</v>
+        <v>50260</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>43221</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="N8" s="7">
-        <v>1426</v>
+        <v>93481</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1290,49 +1388,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D9" s="7">
-        <v>42390</v>
+        <v>50960</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I9" s="7">
-        <v>32703</v>
+        <v>43221</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="N9" s="7">
-        <v>75093</v>
+        <v>94181</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1343,49 +1441,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>53267</v>
+        <v>1278</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>654</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="7">
-        <v>62</v>
-      </c>
-      <c r="I10" s="7">
-        <v>42638</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>3</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1932</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="7">
-        <v>141</v>
-      </c>
-      <c r="N10" s="7">
-        <v>95905</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1394,49 +1492,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D11" s="7">
-        <v>1788</v>
+        <v>22588</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="7">
+        <v>32</v>
+      </c>
+      <c r="I11" s="7">
+        <v>21853</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="7">
+        <v>66</v>
+      </c>
+      <c r="N11" s="7">
+        <v>44441</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2043</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" s="7">
-        <v>6</v>
-      </c>
-      <c r="N11" s="7">
-        <v>3831</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1445,102 +1543,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>55055</v>
+        <v>23866</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="I12" s="7">
-        <v>44681</v>
+        <v>22507</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="N12" s="7">
-        <v>99736</v>
+        <v>46373</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>210</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>140706</v>
+        <v>1235</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1389</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>4</v>
+      </c>
+      <c r="N13" s="7">
+        <v>2624</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="7">
-        <v>187</v>
-      </c>
-      <c r="I13" s="7">
-        <v>123262</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="7">
-        <v>397</v>
-      </c>
-      <c r="N13" s="7">
-        <v>263968</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1549,49 +1647,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D14" s="7">
-        <v>3213</v>
+        <v>38203</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="7">
+        <v>43</v>
+      </c>
+      <c r="I14" s="7">
+        <v>29154</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="7">
+        <v>100</v>
+      </c>
+      <c r="N14" s="7">
+        <v>67357</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2043</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M14" s="7">
-        <v>8</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5256</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1600,55 +1698,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>59</v>
+      </c>
+      <c r="D15" s="7">
+        <v>39438</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>45</v>
+      </c>
+      <c r="I15" s="7">
+        <v>30543</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>104</v>
+      </c>
+      <c r="N15" s="7">
+        <v>69981</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3213</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2043</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" s="7">
+        <v>8</v>
+      </c>
+      <c r="N16" s="7">
+        <v>5256</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>210</v>
+      </c>
+      <c r="D17" s="7">
+        <v>140706</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="7">
+        <v>187</v>
+      </c>
+      <c r="I17" s="7">
+        <v>123262</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="7">
+        <v>397</v>
+      </c>
+      <c r="N17" s="7">
+        <v>263968</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>215</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>143919</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>190</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>125305</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>405</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>269224</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1661,8 +1920,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E33D519-7698-4C6C-A37D-100439DCEEFB}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5836EBE9-F619-4FB1-8821-FC51A6194B82}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1678,7 +1937,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1779,49 +2038,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>78915</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="H4" s="7">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>74947</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M4" s="7">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>153862</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1830,49 +2089,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>51749</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>48856</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>100606</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,49 +2140,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="D6" s="7">
-        <v>78915</v>
+        <v>51749</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="I6" s="7">
-        <v>74947</v>
+        <v>48856</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>223</v>
+        <v>145</v>
       </c>
       <c r="N6" s="7">
-        <v>153862</v>
+        <v>100606</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,49 +2193,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>66677</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="H7" s="7">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>54498</v>
+        <v>656</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>656</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="7">
-        <v>167</v>
-      </c>
-      <c r="N7" s="7">
-        <v>121175</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,49 +2244,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>74671</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="I8" s="7">
-        <v>656</v>
+        <v>64591</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>196</v>
       </c>
       <c r="N8" s="7">
-        <v>656</v>
+        <v>139262</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2036,49 +2295,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D9" s="7">
-        <v>66677</v>
+        <v>74671</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="I9" s="7">
-        <v>55154</v>
+        <v>65247</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="N9" s="7">
-        <v>121831</v>
+        <v>139918</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,49 +2348,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>43219</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="H10" s="7">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>54599</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="M10" s="7">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>97818</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,49 +2399,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7">
-        <v>2667</v>
+        <v>32494</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="I11" s="7">
-        <v>2292</v>
+        <v>37728</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="7">
         <v>99</v>
       </c>
-      <c r="M11" s="7">
-        <v>7</v>
-      </c>
       <c r="N11" s="7">
-        <v>4959</v>
+        <v>70223</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,102 +2450,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D12" s="7">
-        <v>45886</v>
+        <v>32494</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="I12" s="7">
-        <v>56891</v>
+        <v>37728</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="N12" s="7">
-        <v>102777</v>
+        <v>70223</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>267</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>188811</v>
+        <v>2667</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2292</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H13" s="7">
-        <v>265</v>
-      </c>
-      <c r="I13" s="7">
-        <v>184045</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>7</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4959</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="M13" s="7">
-        <v>532</v>
-      </c>
-      <c r="N13" s="7">
-        <v>372856</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,49 +2554,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D14" s="7">
-        <v>2667</v>
+        <v>29896</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>48</v>
+      </c>
+      <c r="I14" s="7">
+        <v>32869</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="7">
-        <v>4</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2947</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>92</v>
+      </c>
+      <c r="N14" s="7">
+        <v>62765</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M14" s="7">
-        <v>8</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5614</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,55 +2605,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>48</v>
+      </c>
+      <c r="D15" s="7">
+        <v>32563</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>51</v>
+      </c>
+      <c r="I15" s="7">
+        <v>35161</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>99</v>
+      </c>
+      <c r="N15" s="7">
+        <v>67724</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2667</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2947</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M16" s="7">
+        <v>8</v>
+      </c>
+      <c r="N16" s="7">
+        <v>5614</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>267</v>
+      </c>
+      <c r="D17" s="7">
+        <v>188811</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="7">
+        <v>265</v>
+      </c>
+      <c r="I17" s="7">
+        <v>184045</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M17" s="7">
+        <v>532</v>
+      </c>
+      <c r="N17" s="7">
+        <v>372856</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>271</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>191478</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>269</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>186992</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>540</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>378470</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2407,8 +2827,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6272BC4-E6A7-466D-987A-1FE53A80CFBC}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C7E9B4-A68E-44B4-915F-47CC02DE4F9E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2424,7 +2844,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2525,49 +2945,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>50078</v>
+        <v>646</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="H4" s="7">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>52492</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M4" s="7">
-        <v>161</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>102570</v>
+        <v>646</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,49 +2996,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D5" s="7">
-        <v>646</v>
+        <v>30272</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>31293</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="N5" s="7">
-        <v>646</v>
+        <v>61565</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,49 +3047,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="D6" s="7">
-        <v>50724</v>
+        <v>30918</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="I6" s="7">
-        <v>52492</v>
+        <v>31293</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="N6" s="7">
-        <v>103216</v>
+        <v>62211</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2680,49 +3100,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>46696</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="H7" s="7">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>53029</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M7" s="7">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>99725</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,49 +3151,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>47366</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>51100</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>98466</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,49 +3202,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D9" s="7">
-        <v>46696</v>
+        <v>47366</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9" s="7">
-        <v>53029</v>
+        <v>51100</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N9" s="7">
-        <v>99725</v>
+        <v>98466</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2835,49 +3255,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>49491</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="7">
-        <v>79</v>
-      </c>
-      <c r="I10" s="7">
-        <v>55874</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="7">
-        <v>147</v>
-      </c>
-      <c r="N10" s="7">
-        <v>105365</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,49 +3306,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D11" s="7">
-        <v>1214</v>
+        <v>42800</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
+        <v>63</v>
+      </c>
+      <c r="I11" s="7">
+        <v>43903</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1141</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>146</v>
-      </c>
       <c r="K11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="7">
+        <v>123</v>
+      </c>
+      <c r="N11" s="7">
+        <v>86703</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="M11" s="7">
-        <v>4</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2355</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>149</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,102 +3357,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D12" s="7">
-        <v>50705</v>
+        <v>42800</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="I12" s="7">
-        <v>57015</v>
+        <v>43903</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="N12" s="7">
-        <v>107720</v>
+        <v>86703</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>212</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>146266</v>
+        <v>1214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="H13" s="7">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>161395</v>
+        <v>1141</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
-        <v>455</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>307661</v>
+        <v>2355</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,49 +3461,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D14" s="7">
-        <v>1859</v>
+        <v>25827</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="I14" s="7">
-        <v>1141</v>
+        <v>35098</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="N14" s="7">
-        <v>3000</v>
+        <v>60926</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,55 +3512,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7">
+        <v>27041</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>52</v>
+      </c>
+      <c r="I15" s="7">
+        <v>36239</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>89</v>
+      </c>
+      <c r="N15" s="7">
+        <v>63281</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1859</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1141</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M16" s="7">
+        <v>5</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3000</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>212</v>
+      </c>
+      <c r="D17" s="7">
+        <v>146266</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H17" s="7">
+        <v>243</v>
+      </c>
+      <c r="I17" s="7">
+        <v>161395</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="7">
+        <v>455</v>
+      </c>
+      <c r="N17" s="7">
+        <v>307661</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>215</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>148125</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>245</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>162536</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>460</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>310661</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP16A06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A06-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58C7BF59-7D6D-4636-B5EF-16A7A81C5EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E326FB6A-B909-4610-94E4-32FCF572E67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6AA784AE-7635-4E4E-8166-B195B4A18785}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{15E60C97-6BF3-4161-AED4-7264750BEDD7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -112,7 +112,7 @@
     <t>1,37%</t>
   </si>
   <si>
-    <t>7,89%</t>
+    <t>5,52%</t>
   </si>
   <si>
     <t>2,86%</t>
@@ -121,13 +121,13 @@
     <t>0,74%</t>
   </si>
   <si>
-    <t>3,69%</t>
+    <t>3,72%</t>
   </si>
   <si>
     <t>98,63%</t>
   </si>
   <si>
-    <t>92,11%</t>
+    <t>94,48%</t>
   </si>
   <si>
     <t>97,14%</t>
@@ -136,7 +136,7 @@
     <t>99,26%</t>
   </si>
   <si>
-    <t>96,31%</t>
+    <t>96,28%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -145,43 +145,43 @@
     <t>5,35%</t>
   </si>
   <si>
-    <t>17,16%</t>
+    <t>18,48%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>14,37%</t>
+    <t>16,67%</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
   </si>
   <si>
     <t>94,65%</t>
   </si>
   <si>
-    <t>82,84%</t>
+    <t>81,52%</t>
   </si>
   <si>
     <t>97,1%</t>
   </si>
   <si>
-    <t>85,63%</t>
+    <t>83,33%</t>
   </si>
   <si>
     <t>95,83%</t>
   </si>
   <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -190,13 +190,13 @@
     <t>3,13%</t>
   </si>
   <si>
-    <t>11,31%</t>
+    <t>11,07%</t>
   </si>
   <si>
     <t>4,55%</t>
   </si>
   <si>
-    <t>16,82%</t>
+    <t>13,9%</t>
   </si>
   <si>
     <t>3,75%</t>
@@ -205,25 +205,25 @@
     <t>0,91%</t>
   </si>
   <si>
-    <t>8,88%</t>
+    <t>8,46%</t>
   </si>
   <si>
     <t>96,87%</t>
   </si>
   <si>
-    <t>88,69%</t>
+    <t>88,93%</t>
   </si>
   <si>
     <t>95,45%</t>
   </si>
   <si>
-    <t>83,18%</t>
+    <t>86,1%</t>
   </si>
   <si>
     <t>96,25%</t>
   </si>
   <si>
-    <t>91,12%</t>
+    <t>91,54%</t>
   </si>
   <si>
     <t>99,09%</t>
@@ -232,10 +232,10 @@
     <t>2,23%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
   </si>
   <si>
     <t>1,63%</t>
@@ -244,28 +244,31 @@
     <t>0,48%</t>
   </si>
   <si>
-    <t>4,54%</t>
+    <t>4,65%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>3,71%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
   </si>
   <si>
     <t>97,77%</t>
   </si>
   <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>98,37%</t>
   </si>
   <si>
-    <t>95,46%</t>
+    <t>95,35%</t>
   </si>
   <si>
     <t>99,52%</t>
@@ -274,7 +277,10 @@
     <t>98,05%</t>
   </si>
   <si>
-    <t>96,29%</t>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -307,13 +313,13 @@
     <t>1,01%</t>
   </si>
   <si>
-    <t>5,13%</t>
+    <t>5,08%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>1,96%</t>
+    <t>2,39%</t>
   </si>
   <si>
     <t>98,17%</t>
@@ -322,13 +328,13 @@
     <t>98,99%</t>
   </si>
   <si>
-    <t>94,87%</t>
+    <t>94,92%</t>
   </si>
   <si>
     <t>99,53%</t>
   </si>
   <si>
-    <t>98,04%</t>
+    <t>97,61%</t>
   </si>
   <si>
     <t>3,54%</t>
@@ -349,31 +355,31 @@
     <t>2,17%</t>
   </si>
   <si>
-    <t>20,69%</t>
+    <t>18,67%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
   </si>
   <si>
     <t>7,32%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
   </si>
   <si>
     <t>91,81%</t>
   </si>
   <si>
-    <t>79,31%</t>
+    <t>81,33%</t>
   </si>
   <si>
     <t>97,83%</t>
@@ -382,226 +388,220 @@
     <t>93,48%</t>
   </si>
   <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
   </si>
   <si>
     <t>92,68%</t>
   </si>
   <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido tranquilizantes, relajantes en 2016 (Tasa respuesta: 21,64%)</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido tranquilizantes, relajantes en 2015 (Tasa respuesta: 21,64%)</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5862E05D-FD64-4100-BB9A-4C32D189291B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FF0386-719E-4E9F-9750-975441B1194C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1790,10 +1790,10 @@
         <v>69</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,13 +1808,13 @@
         <v>140706</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
@@ -1823,13 +1823,13 @@
         <v>123262</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M17" s="7">
         <v>397</v>
@@ -1838,13 +1838,13 @@
         <v>263968</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1900,7 +1900,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1920,7 +1920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5836EBE9-F619-4FB1-8821-FC51A6194B82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4746CAC-F88D-4C5D-BC03-E4B984AE5F10}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1937,7 +1937,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2050,7 +2050,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,7 +2098,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2113,7 +2113,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2128,7 +2128,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2205,7 +2205,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2214,13 +2214,13 @@
         <v>656</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2229,13 +2229,13 @@
         <v>656</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,7 +2253,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2265,10 +2265,10 @@
         <v>64591</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -2280,10 +2280,10 @@
         <v>139262</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2375,7 +2375,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2390,7 +2390,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2423,7 +2423,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2438,7 +2438,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2509,13 +2509,13 @@
         <v>2667</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2524,13 +2524,13 @@
         <v>2292</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2539,13 +2539,13 @@
         <v>4959</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,13 +2560,13 @@
         <v>29896</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -2575,13 +2575,13 @@
         <v>32869</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M14" s="7">
         <v>92</v>
@@ -2590,13 +2590,13 @@
         <v>62765</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2664,13 @@
         <v>2667</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -2679,13 +2679,13 @@
         <v>2947</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -2694,13 +2694,13 @@
         <v>5614</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,13 +2715,13 @@
         <v>188811</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H17" s="7">
         <v>265</v>
@@ -2730,13 +2730,13 @@
         <v>184045</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M17" s="7">
         <v>532</v>
@@ -2745,13 +2745,13 @@
         <v>372856</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,7 +2807,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2827,7 +2827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C7E9B4-A68E-44B4-915F-47CC02DE4F9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5311CCA3-984F-4D04-980A-CE85D427D789}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2844,7 +2844,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2951,13 +2951,13 @@
         <v>646</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2981,13 +2981,13 @@
         <v>646</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,10 +3002,10 @@
         <v>30272</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -3020,7 +3020,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3032,10 +3032,10 @@
         <v>61565</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3112,7 +3112,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3127,7 +3127,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3142,7 +3142,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,7 +3160,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3175,7 +3175,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3446,13 +3446,13 @@
         <v>2355</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,10 +3467,10 @@
         <v>25827</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -3482,10 +3482,10 @@
         <v>35098</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -3497,13 +3497,13 @@
         <v>60926</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,13 +3571,13 @@
         <v>1859</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3586,13 +3586,13 @@
         <v>1141</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -3601,13 +3601,13 @@
         <v>3000</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,13 +3622,13 @@
         <v>146266</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H17" s="7">
         <v>243</v>
@@ -3637,10 +3637,10 @@
         <v>161395</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -3652,10 +3652,10 @@
         <v>307661</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>187</v>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E326FB6A-B909-4610-94E4-32FCF572E67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5DC45C3-0050-4E8B-B6FB-8AF30B0B6EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{15E60C97-6BF3-4161-AED4-7264750BEDD7}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{EB3FAAF2-620A-40FA-A021-B6B654208592}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="186">
   <si>
     <t>Menores según si ha consumido tranquilizantes, relajantes en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -79,12 +79,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>4,07%</t>
+  </si>
+  <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
     <t>2,11%</t>
   </si>
   <si>
@@ -94,514 +94,508 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>95,75%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
     <t>97,89%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>2,86%</t>
+  </si>
+  <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
+    <t>6,81%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido tranquilizantes, relajantes en 2012 (Tasa respuesta: 25,73%)</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido tranquilizantes, relajantes en 2016 (Tasa respuesta: 21,64%)</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
   </si>
   <si>
     <t>96,28%</t>
   </si>
   <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido tranquilizantes, relajantes en 2012 (Tasa respuesta: 25,73%)</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
   <si>
     <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido tranquilizantes, relajantes en 2016 (Tasa respuesta: 21,64%)</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FF0386-719E-4E9F-9750-975441B1194C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F660D493-E2F4-486D-B7D2-05E6A71F2EA6}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1182,10 +1176,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5" s="7">
-        <v>29655</v>
+        <v>29035</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1197,10 +1191,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I5" s="7">
-        <v>29035</v>
+        <v>29655</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1233,25 +1227,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>46</v>
+      </c>
+      <c r="D6" s="7">
+        <v>29035</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>44</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>29655</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>46</v>
-      </c>
-      <c r="I6" s="7">
-        <v>29035</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1286,31 +1280,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>700</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>25</v>
@@ -1337,34 +1331,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>66</v>
+      </c>
+      <c r="D8" s="7">
+        <v>43221</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
         <v>75</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>50260</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <v>66</v>
-      </c>
-      <c r="I8" s="7">
-        <v>43221</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
         <v>141</v>
@@ -1388,25 +1382,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>66</v>
+      </c>
+      <c r="D9" s="7">
+        <v>43221</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>76</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>50960</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>66</v>
-      </c>
-      <c r="I9" s="7">
-        <v>43221</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1441,10 +1435,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1278</v>
+        <v>654</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
@@ -1456,10 +1450,10 @@
         <v>35</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>654</v>
+        <v>1278</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>36</v>
@@ -1492,10 +1486,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7">
-        <v>22588</v>
+        <v>21853</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>41</v>
@@ -1507,10 +1501,10 @@
         <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I11" s="7">
-        <v>21853</v>
+        <v>22588</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>43</v>
@@ -1543,25 +1537,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7">
+        <v>22507</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>36</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>23866</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>33</v>
-      </c>
-      <c r="I12" s="7">
-        <v>22507</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1599,7 +1593,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1235</v>
+        <v>1389</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>49</v>
@@ -1614,7 +1608,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1389</v>
+        <v>1235</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>51</v>
@@ -1647,10 +1641,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D14" s="7">
-        <v>38203</v>
+        <v>29154</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>56</v>
@@ -1662,10 +1656,10 @@
         <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I14" s="7">
-        <v>29154</v>
+        <v>38203</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>58</v>
@@ -1698,25 +1692,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>45</v>
+      </c>
+      <c r="D15" s="7">
+        <v>30543</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>59</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>39438</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>45</v>
-      </c>
-      <c r="I15" s="7">
-        <v>30543</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1751,10 +1745,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>3213</v>
+        <v>2043</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>63</v>
@@ -1766,10 +1760,10 @@
         <v>65</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>2043</v>
+        <v>3213</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>66</v>
@@ -1802,10 +1796,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="D17" s="7">
-        <v>140706</v>
+        <v>123262</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>72</v>
@@ -1817,10 +1811,10 @@
         <v>74</v>
       </c>
       <c r="H17" s="7">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="I17" s="7">
-        <v>123262</v>
+        <v>140706</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>75</v>
@@ -1853,25 +1847,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>190</v>
+      </c>
+      <c r="D18" s="7">
+        <v>125305</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>215</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>143919</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>190</v>
-      </c>
-      <c r="I18" s="7">
-        <v>125305</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1920,7 +1914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4746CAC-F88D-4C5D-BC03-E4B984AE5F10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65449EC6-C731-431D-B412-39033B34AA08}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2089,10 +2083,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="7">
-        <v>51749</v>
+        <v>48856</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -2104,10 +2098,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" s="7">
-        <v>48856</v>
+        <v>51749</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -2122,7 +2116,7 @@
         <v>145</v>
       </c>
       <c r="N5" s="7">
-        <v>100606</v>
+        <v>100605</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -2140,25 +2134,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>72</v>
+      </c>
+      <c r="D6" s="7">
+        <v>48856</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>73</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>51749</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>72</v>
-      </c>
-      <c r="I6" s="7">
-        <v>48856</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2173,7 +2167,7 @@
         <v>145</v>
       </c>
       <c r="N6" s="7">
-        <v>100606</v>
+        <v>100605</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -2193,31 +2187,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>656</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>0</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>656</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>91</v>
@@ -2244,34 +2238,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>92</v>
+      </c>
+      <c r="D8" s="7">
+        <v>64591</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
         <v>104</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>74671</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>92</v>
-      </c>
-      <c r="I8" s="7">
-        <v>64591</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>96</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>196</v>
@@ -2295,25 +2289,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>93</v>
+      </c>
+      <c r="D9" s="7">
+        <v>65247</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>104</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>74671</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>93</v>
-      </c>
-      <c r="I9" s="7">
-        <v>65247</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2360,7 +2354,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2375,7 +2369,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2399,31 +2393,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D11" s="7">
-        <v>32494</v>
+        <v>37728</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I11" s="7">
-        <v>37728</v>
+        <v>32494</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2450,25 +2444,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7">
+        <v>37728</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>46</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>32494</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>53</v>
-      </c>
-      <c r="I12" s="7">
-        <v>37728</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2503,10 +2497,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>2667</v>
+        <v>2292</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>103</v>
@@ -2518,19 +2512,19 @@
         <v>105</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>2292</v>
+        <v>2667</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>106</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2539,13 +2533,13 @@
         <v>4959</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,34 +2548,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>48</v>
+      </c>
+      <c r="D14" s="7">
+        <v>32869</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="7">
         <v>44</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>29896</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="7">
-        <v>48</v>
-      </c>
-      <c r="I14" s="7">
-        <v>32869</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>92</v>
@@ -2590,13 +2584,13 @@
         <v>62765</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2605,25 +2599,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>51</v>
+      </c>
+      <c r="D15" s="7">
+        <v>35161</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>48</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>32563</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>51</v>
-      </c>
-      <c r="I15" s="7">
-        <v>35161</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2661,31 +2655,31 @@
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>2667</v>
+        <v>2947</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>2947</v>
+        <v>2667</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -2694,13 +2688,13 @@
         <v>5614</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,34 +2703,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>265</v>
+      </c>
+      <c r="D17" s="7">
+        <v>184045</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="7">
         <v>267</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>188811</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H17" s="7">
-        <v>265</v>
-      </c>
-      <c r="I17" s="7">
-        <v>184045</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M17" s="7">
         <v>532</v>
@@ -2745,13 +2739,13 @@
         <v>372856</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,25 +2754,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>269</v>
+      </c>
+      <c r="D18" s="7">
+        <v>186992</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>271</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>191478</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>269</v>
-      </c>
-      <c r="I18" s="7">
-        <v>186992</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2827,7 +2821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5311CCA3-984F-4D04-980A-CE85D427D789}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87F891C-306E-46F4-BD4B-4AA96B9DB8B7}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2844,7 +2838,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2945,34 +2939,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>646</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2981,13 +2975,13 @@
         <v>646</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,34 +2990,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>51</v>
+      </c>
+      <c r="D5" s="7">
+        <v>31293</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>47</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>30272</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H5" s="7">
-        <v>51</v>
-      </c>
-      <c r="I5" s="7">
-        <v>31293</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>98</v>
@@ -3032,10 +3026,10 @@
         <v>61565</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3047,25 +3041,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>51</v>
+      </c>
+      <c r="D6" s="7">
+        <v>31293</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>48</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>30918</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>51</v>
-      </c>
-      <c r="I6" s="7">
-        <v>31293</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3112,7 +3106,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3127,7 +3121,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3142,7 +3136,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,31 +3145,31 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D8" s="7">
-        <v>47366</v>
+        <v>51100</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I8" s="7">
-        <v>51100</v>
+        <v>47366</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3202,25 +3196,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>79</v>
+      </c>
+      <c r="D9" s="7">
+        <v>51100</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>70</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>47366</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>79</v>
-      </c>
-      <c r="I9" s="7">
-        <v>51100</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3306,10 +3300,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D11" s="7">
-        <v>42800</v>
+        <v>43903</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -3321,10 +3315,10 @@
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I11" s="7">
-        <v>43903</v>
+        <v>42800</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
@@ -3357,25 +3351,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>63</v>
+      </c>
+      <c r="D12" s="7">
+        <v>43903</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>60</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>42800</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>63</v>
-      </c>
-      <c r="I12" s="7">
-        <v>43903</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3413,7 +3407,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1214</v>
+        <v>1141</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>160</v>
@@ -3428,7 +3422,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1141</v>
+        <v>1214</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>162</v>
@@ -3446,13 +3440,13 @@
         <v>2355</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,31 +3455,31 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D14" s="7">
-        <v>25827</v>
+        <v>35098</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I14" s="7">
-        <v>35098</v>
+        <v>25827</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -3497,13 +3491,13 @@
         <v>60926</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,25 +3506,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>52</v>
+      </c>
+      <c r="D15" s="7">
+        <v>36239</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>37</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>27041</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>52</v>
-      </c>
-      <c r="I15" s="7">
-        <v>36239</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3565,34 +3559,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1859</v>
+        <v>1141</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>174</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>1141</v>
+        <v>1859</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>175</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -3601,7 +3595,7 @@
         <v>3000</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>178</v>
@@ -3616,34 +3610,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>243</v>
+      </c>
+      <c r="D17" s="7">
+        <v>161395</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
         <v>212</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>146266</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H17" s="7">
-        <v>243</v>
-      </c>
-      <c r="I17" s="7">
-        <v>161395</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="M17" s="7">
         <v>455</v>
@@ -3652,13 +3646,13 @@
         <v>307661</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,25 +3661,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>245</v>
+      </c>
+      <c r="D18" s="7">
+        <v>162536</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>215</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>148125</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>245</v>
-      </c>
-      <c r="I18" s="7">
-        <v>162536</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
